--- a/SuppXLS/Scen_NetEmissionsBound.xlsx
+++ b/SuppXLS/Scen_NetEmissionsBound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2686C9-7D26-4FF4-B1B5-5D203D6934FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35027D1C-5538-4D4E-B6D0-641E1ED43DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DCAC5C64-470D-4E30-B4B2-9EA108CA92B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{DCAC5C64-470D-4E30-B4B2-9EA108CA92B0}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>UC_N</t>
   </si>
@@ -131,15 +131,9 @@
     <t>LimType</t>
   </si>
   <si>
-    <t>UC_FLO</t>
-  </si>
-  <si>
     <t>UC_Desc</t>
   </si>
   <si>
-    <t>ELE</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t xml:space="preserve">Net zero emissions from ELE </t>
   </si>
   <si>
-    <t>-EN_Z*</t>
-  </si>
-  <si>
     <t>Commodity</t>
   </si>
   <si>
@@ -177,6 +168,12 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>TOTCO2Net</t>
+  </si>
+  <si>
+    <t>UC_COMNET</t>
   </si>
 </sst>
 </file>
@@ -1530,26 +1527,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="19">
         <v>2020</v>
@@ -2067,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A27793-05B7-4680-AAEB-0249B6B091E4}">
-  <dimension ref="F3:AF19"/>
+  <dimension ref="F3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,7 +2102,7 @@
   <sheetData>
     <row r="3" spans="6:32" x14ac:dyDescent="0.3">
       <c r="L3" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M3" s="23">
         <v>2020</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="4" spans="6:32" x14ac:dyDescent="0.3">
       <c r="L4" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" s="25">
         <v>1.1000000000000001</v>
@@ -2180,7 +2177,7 @@
     <row r="9" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F9" s="9"/>
       <c r="G9" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2246,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N12" s="8" t="str">
         <f>'CO2 Emissions from Veda '!C1</f>
@@ -2320,627 +2317,647 @@
         <v>0</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K13" s="9">
-        <v>2020</v>
+        <v>2080</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9">
         <v>1</v>
       </c>
-      <c r="N13" s="7">
-        <f>'CO2 Emissions from Veda '!C$5*$M$4</f>
-        <v>200745.83308319323</v>
-      </c>
-      <c r="O13" s="7">
-        <f>'CO2 Emissions from Veda '!D$5*$M$4</f>
-        <v>391899.05716473493</v>
-      </c>
-      <c r="P13" s="7">
-        <f>'CO2 Emissions from Veda '!E$5*$M$4</f>
-        <v>209632.31876133144</v>
-      </c>
-      <c r="Q13" s="7">
-        <f>'CO2 Emissions from Veda '!F$5*$M$4</f>
-        <v>43273.698728598916</v>
-      </c>
-      <c r="R13" s="7">
-        <f>'CO2 Emissions from Veda '!G$5*$M$4</f>
-        <v>64152.380612367851</v>
-      </c>
-      <c r="S13" s="7">
-        <f>'CO2 Emissions from Veda '!H$5*$M$4</f>
-        <v>5302928.7547425861</v>
-      </c>
-      <c r="T13" s="7">
-        <f>'CO2 Emissions from Veda '!I$5*$M$4</f>
-        <v>148624.40913964494</v>
-      </c>
-      <c r="U13" s="7">
-        <f>'CO2 Emissions from Veda '!J$5*$M$4</f>
-        <v>909973.0123795477</v>
-      </c>
-      <c r="V13" s="7">
-        <f>'CO2 Emissions from Veda '!K$5*$M$4</f>
-        <v>1243997.1765004192</v>
-      </c>
-      <c r="W13" s="7">
-        <f>'CO2 Emissions from Veda '!L$5*$M$4</f>
-        <v>490972.20130780368</v>
-      </c>
-      <c r="X13" s="7">
-        <f>'CO2 Emissions from Veda '!M$5*$M$4</f>
-        <v>633504.14429413655</v>
-      </c>
-      <c r="Y13" s="7">
-        <f>'CO2 Emissions from Veda '!N$5*$M$4</f>
-        <v>156663.48497725421</v>
-      </c>
-      <c r="Z13" s="7">
-        <f>'CO2 Emissions from Veda '!O$5*$M$4</f>
-        <v>1002237.7898707615</v>
-      </c>
-      <c r="AA13" s="7">
-        <f>'CO2 Emissions from Veda '!P$5*$M$4</f>
-        <v>518903.69667626609</v>
-      </c>
-      <c r="AB13" s="7">
-        <f>'CO2 Emissions from Veda '!Q$5*$M$4</f>
-        <v>258590.98357413313</v>
-      </c>
-      <c r="AC13" s="7">
-        <f>'CO2 Emissions from Veda '!R$5*$M$4</f>
-        <v>277706.27075208054</v>
-      </c>
-      <c r="AD13" s="7">
-        <f>'CO2 Emissions from Veda '!S$5*$M$4</f>
-        <v>2192216.7333923341</v>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
       </c>
       <c r="AE13" s="9">
         <v>5</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2030</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="7">
-        <f>'CO2 Emissions from Veda '!C$5*$N$4</f>
-        <v>145996.9695150496</v>
-      </c>
-      <c r="O14" s="7">
-        <f>'CO2 Emissions from Veda '!D$5*$N$4</f>
-        <v>285017.49611980718</v>
-      </c>
-      <c r="P14" s="7">
-        <f>'CO2 Emissions from Veda '!E$5*$N$4</f>
-        <v>152459.86819005921</v>
-      </c>
-      <c r="Q14" s="7">
-        <f>'CO2 Emissions from Veda '!F$5*$N$4</f>
-        <v>31471.780893526484</v>
-      </c>
-      <c r="R14" s="7">
-        <f>'CO2 Emissions from Veda '!G$5*$N$4</f>
-        <v>46656.2768089948</v>
-      </c>
-      <c r="S14" s="7">
-        <f>'CO2 Emissions from Veda '!H$5*$N$4</f>
-        <v>3856675.4579946082</v>
-      </c>
-      <c r="T14" s="7">
-        <f>'CO2 Emissions from Veda '!I$5*$N$4</f>
-        <v>108090.47937428721</v>
-      </c>
-      <c r="U14" s="7">
-        <f>'CO2 Emissions from Veda '!J$5*$N$4</f>
-        <v>661798.55445785285</v>
-      </c>
-      <c r="V14" s="7">
-        <f>'CO2 Emissions from Veda '!K$5*$N$4</f>
-        <v>904725.21927303215</v>
-      </c>
-      <c r="W14" s="7">
-        <f>'CO2 Emissions from Veda '!L$5*$N$4</f>
-        <v>357070.69186022086</v>
-      </c>
-      <c r="X14" s="7">
-        <f>'CO2 Emissions from Veda '!M$5*$N$4</f>
-        <v>460730.28675937199</v>
-      </c>
-      <c r="Y14" s="7">
-        <f>'CO2 Emissions from Veda '!N$5*$N$4</f>
-        <v>113937.0799834576</v>
-      </c>
-      <c r="Z14" s="7">
-        <f>'CO2 Emissions from Veda '!O$5*$N$4</f>
-        <v>728900.21081509918</v>
-      </c>
-      <c r="AA14" s="7">
-        <f>'CO2 Emissions from Veda '!P$5*$N$4</f>
-        <v>377384.50667364802</v>
-      </c>
-      <c r="AB14" s="7">
-        <f>'CO2 Emissions from Veda '!Q$5*$N$4</f>
-        <v>188066.16987209683</v>
-      </c>
-      <c r="AC14" s="7">
-        <f>'CO2 Emissions from Veda '!R$5*$N$4</f>
-        <v>201968.19691060402</v>
-      </c>
-      <c r="AD14" s="7">
-        <f>'CO2 Emissions from Veda '!S$5*$N$4</f>
-        <v>1594339.4424671521</v>
-      </c>
     </row>
     <row r="15" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2040</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="7">
-        <f>'CO2 Emissions from Veda '!C$5*$O$4</f>
-        <v>91248.105946905998</v>
-      </c>
-      <c r="O15" s="7">
-        <f>'CO2 Emissions from Veda '!D$5*$O$4</f>
-        <v>178135.9350748795</v>
-      </c>
-      <c r="P15" s="7">
-        <f>'CO2 Emissions from Veda '!E$5*$O$4</f>
-        <v>95287.417618787003</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>'CO2 Emissions from Veda '!F$5*$O$4</f>
-        <v>19669.863058454051</v>
-      </c>
-      <c r="R15" s="7">
-        <f>'CO2 Emissions from Veda '!G$5*$O$4</f>
-        <v>29160.173005621749</v>
-      </c>
-      <c r="S15" s="7">
-        <f>'CO2 Emissions from Veda '!H$5*$O$4</f>
-        <v>2410422.1612466299</v>
-      </c>
-      <c r="T15" s="7">
-        <f>'CO2 Emissions from Veda '!I$5*$O$4</f>
-        <v>67556.549608929505</v>
-      </c>
-      <c r="U15" s="7">
-        <f>'CO2 Emissions from Veda '!J$5*$O$4</f>
-        <v>413624.096536158</v>
-      </c>
-      <c r="V15" s="7">
-        <f>'CO2 Emissions from Veda '!K$5*$O$4</f>
-        <v>565453.26204564504</v>
-      </c>
-      <c r="W15" s="7">
-        <f>'CO2 Emissions from Veda '!L$5*$O$4</f>
-        <v>223169.18241263801</v>
-      </c>
-      <c r="X15" s="7">
-        <f>'CO2 Emissions from Veda '!M$5*$O$4</f>
-        <v>287956.42922460748</v>
-      </c>
-      <c r="Y15" s="7">
-        <f>'CO2 Emissions from Veda '!N$5*$O$4</f>
-        <v>71210.674989660998</v>
-      </c>
-      <c r="Z15" s="7">
-        <f>'CO2 Emissions from Veda '!O$5*$O$4</f>
-        <v>455562.63175943698</v>
-      </c>
-      <c r="AA15" s="7">
-        <f>'CO2 Emissions from Veda '!P$5*$O$4</f>
-        <v>235865.31667103001</v>
-      </c>
-      <c r="AB15" s="7">
-        <f>'CO2 Emissions from Veda '!Q$5*$O$4</f>
-        <v>117541.35617006051</v>
-      </c>
-      <c r="AC15" s="7">
-        <f>'CO2 Emissions from Veda '!R$5*$O$4</f>
-        <v>126230.1230691275</v>
-      </c>
-      <c r="AD15" s="7">
-        <f>'CO2 Emissions from Veda '!S$5*$O$4</f>
-        <v>996462.15154196997</v>
-      </c>
     </row>
     <row r="16" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="7">
-        <f>'CO2 Emissions from Veda '!C$5*$P$4</f>
-        <v>63873.674162834192</v>
-      </c>
-      <c r="O16" s="7">
-        <f>'CO2 Emissions from Veda '!D$5*$P$4</f>
-        <v>124695.15455241564</v>
-      </c>
-      <c r="P16" s="7">
-        <f>'CO2 Emissions from Veda '!E$5*$P$4</f>
-        <v>66701.192333150902</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>'CO2 Emissions from Veda '!F$5*$P$4</f>
-        <v>13768.904140917835</v>
-      </c>
-      <c r="R16" s="7">
-        <f>'CO2 Emissions from Veda '!G$5*$P$4</f>
-        <v>20412.121103935224</v>
-      </c>
-      <c r="S16" s="7">
-        <f>'CO2 Emissions from Veda '!H$5*$P$4</f>
-        <v>1687295.5128726407</v>
-      </c>
-      <c r="T16" s="7">
-        <f>'CO2 Emissions from Veda '!I$5*$P$4</f>
-        <v>47289.58472625065</v>
-      </c>
-      <c r="U16" s="7">
-        <f>'CO2 Emissions from Veda '!J$5*$P$4</f>
-        <v>289536.86757531058</v>
-      </c>
-      <c r="V16" s="7">
-        <f>'CO2 Emissions from Veda '!K$5*$P$4</f>
-        <v>395817.28343195148</v>
-      </c>
-      <c r="W16" s="7">
-        <f>'CO2 Emissions from Veda '!L$5*$P$4</f>
-        <v>156218.4276888466</v>
-      </c>
-      <c r="X16" s="7">
-        <f>'CO2 Emissions from Veda '!M$5*$P$4</f>
-        <v>201569.50045722522</v>
-      </c>
-      <c r="Y16" s="7">
-        <f>'CO2 Emissions from Veda '!N$5*$P$4</f>
-        <v>49847.472492762696</v>
-      </c>
-      <c r="Z16" s="7">
-        <f>'CO2 Emissions from Veda '!O$5*$P$4</f>
-        <v>318893.84223160584</v>
-      </c>
-      <c r="AA16" s="7">
-        <f>'CO2 Emissions from Veda '!P$5*$P$4</f>
-        <v>165105.72166972101</v>
-      </c>
-      <c r="AB16" s="7">
-        <f>'CO2 Emissions from Veda '!Q$5*$P$4</f>
-        <v>82278.949319042353</v>
-      </c>
-      <c r="AC16" s="7">
-        <f>'CO2 Emissions from Veda '!R$5*$P$4</f>
-        <v>88361.086148389237</v>
-      </c>
-      <c r="AD16" s="7">
-        <f>'CO2 Emissions from Veda '!S$5*$P$4</f>
-        <v>697523.50607937889</v>
-      </c>
     </row>
     <row r="17" spans="6:30" x14ac:dyDescent="0.3">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="H17" s="9"/>
+      <c r="I17" s="6"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="H18" s="9"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="27" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2030</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="7">
+        <f>'CO2 Emissions from Veda '!C$5*$M$4</f>
+        <v>200745.83308319323</v>
+      </c>
+      <c r="O27" s="7">
+        <f>'CO2 Emissions from Veda '!D$5*$M$4</f>
+        <v>391899.05716473493</v>
+      </c>
+      <c r="P27" s="7">
+        <f>'CO2 Emissions from Veda '!E$5*$M$4</f>
+        <v>209632.31876133144</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>'CO2 Emissions from Veda '!F$5*$M$4</f>
+        <v>43273.698728598916</v>
+      </c>
+      <c r="R27" s="7">
+        <f>'CO2 Emissions from Veda '!G$5*$M$4</f>
+        <v>64152.380612367851</v>
+      </c>
+      <c r="S27" s="7">
+        <f>'CO2 Emissions from Veda '!H$5*$M$4</f>
+        <v>5302928.7547425861</v>
+      </c>
+      <c r="T27" s="7">
+        <f>'CO2 Emissions from Veda '!I$5*$M$4</f>
+        <v>148624.40913964494</v>
+      </c>
+      <c r="U27" s="7">
+        <f>'CO2 Emissions from Veda '!J$5*$M$4</f>
+        <v>909973.0123795477</v>
+      </c>
+      <c r="V27" s="7">
+        <f>'CO2 Emissions from Veda '!K$5*$M$4</f>
+        <v>1243997.1765004192</v>
+      </c>
+      <c r="W27" s="7">
+        <f>'CO2 Emissions from Veda '!L$5*$M$4</f>
+        <v>490972.20130780368</v>
+      </c>
+      <c r="X27" s="7">
+        <f>'CO2 Emissions from Veda '!M$5*$M$4</f>
+        <v>633504.14429413655</v>
+      </c>
+      <c r="Y27" s="7">
+        <f>'CO2 Emissions from Veda '!N$5*$M$4</f>
+        <v>156663.48497725421</v>
+      </c>
+      <c r="Z27" s="7">
+        <f>'CO2 Emissions from Veda '!O$5*$M$4</f>
+        <v>1002237.7898707615</v>
+      </c>
+      <c r="AA27" s="7">
+        <f>'CO2 Emissions from Veda '!P$5*$M$4</f>
+        <v>518903.69667626609</v>
+      </c>
+      <c r="AB27" s="7">
+        <f>'CO2 Emissions from Veda '!Q$5*$M$4</f>
+        <v>258590.98357413313</v>
+      </c>
+      <c r="AC27" s="7">
+        <f>'CO2 Emissions from Veda '!R$5*$M$4</f>
+        <v>277706.27075208054</v>
+      </c>
+      <c r="AD27" s="7">
+        <f>'CO2 Emissions from Veda '!S$5*$M$4</f>
+        <v>2192216.7333923341</v>
+      </c>
+    </row>
+    <row r="28" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2040</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="7">
+        <f>'CO2 Emissions from Veda '!C$5*$N$4</f>
+        <v>145996.9695150496</v>
+      </c>
+      <c r="O28" s="7">
+        <f>'CO2 Emissions from Veda '!D$5*$N$4</f>
+        <v>285017.49611980718</v>
+      </c>
+      <c r="P28" s="7">
+        <f>'CO2 Emissions from Veda '!E$5*$N$4</f>
+        <v>152459.86819005921</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>'CO2 Emissions from Veda '!F$5*$N$4</f>
+        <v>31471.780893526484</v>
+      </c>
+      <c r="R28" s="7">
+        <f>'CO2 Emissions from Veda '!G$5*$N$4</f>
+        <v>46656.2768089948</v>
+      </c>
+      <c r="S28" s="7">
+        <f>'CO2 Emissions from Veda '!H$5*$N$4</f>
+        <v>3856675.4579946082</v>
+      </c>
+      <c r="T28" s="7">
+        <f>'CO2 Emissions from Veda '!I$5*$N$4</f>
+        <v>108090.47937428721</v>
+      </c>
+      <c r="U28" s="7">
+        <f>'CO2 Emissions from Veda '!J$5*$N$4</f>
+        <v>661798.55445785285</v>
+      </c>
+      <c r="V28" s="7">
+        <f>'CO2 Emissions from Veda '!K$5*$N$4</f>
+        <v>904725.21927303215</v>
+      </c>
+      <c r="W28" s="7">
+        <f>'CO2 Emissions from Veda '!L$5*$N$4</f>
+        <v>357070.69186022086</v>
+      </c>
+      <c r="X28" s="7">
+        <f>'CO2 Emissions from Veda '!M$5*$N$4</f>
+        <v>460730.28675937199</v>
+      </c>
+      <c r="Y28" s="7">
+        <f>'CO2 Emissions from Veda '!N$5*$N$4</f>
+        <v>113937.0799834576</v>
+      </c>
+      <c r="Z28" s="7">
+        <f>'CO2 Emissions from Veda '!O$5*$N$4</f>
+        <v>728900.21081509918</v>
+      </c>
+      <c r="AA28" s="7">
+        <f>'CO2 Emissions from Veda '!P$5*$N$4</f>
+        <v>377384.50667364802</v>
+      </c>
+      <c r="AB28" s="7">
+        <f>'CO2 Emissions from Veda '!Q$5*$N$4</f>
+        <v>188066.16987209683</v>
+      </c>
+      <c r="AC28" s="7">
+        <f>'CO2 Emissions from Veda '!R$5*$N$4</f>
+        <v>201968.19691060402</v>
+      </c>
+      <c r="AD28" s="7">
+        <f>'CO2 Emissions from Veda '!S$5*$N$4</f>
+        <v>1594339.4424671521</v>
+      </c>
+    </row>
+    <row r="29" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2050</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="7">
+        <f>'CO2 Emissions from Veda '!C$5*$O$4</f>
+        <v>91248.105946905998</v>
+      </c>
+      <c r="O29" s="7">
+        <f>'CO2 Emissions from Veda '!D$5*$O$4</f>
+        <v>178135.9350748795</v>
+      </c>
+      <c r="P29" s="7">
+        <f>'CO2 Emissions from Veda '!E$5*$O$4</f>
+        <v>95287.417618787003</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>'CO2 Emissions from Veda '!F$5*$O$4</f>
+        <v>19669.863058454051</v>
+      </c>
+      <c r="R29" s="7">
+        <f>'CO2 Emissions from Veda '!G$5*$O$4</f>
+        <v>29160.173005621749</v>
+      </c>
+      <c r="S29" s="7">
+        <f>'CO2 Emissions from Veda '!H$5*$O$4</f>
+        <v>2410422.1612466299</v>
+      </c>
+      <c r="T29" s="7">
+        <f>'CO2 Emissions from Veda '!I$5*$O$4</f>
+        <v>67556.549608929505</v>
+      </c>
+      <c r="U29" s="7">
+        <f>'CO2 Emissions from Veda '!J$5*$O$4</f>
+        <v>413624.096536158</v>
+      </c>
+      <c r="V29" s="7">
+        <f>'CO2 Emissions from Veda '!K$5*$O$4</f>
+        <v>565453.26204564504</v>
+      </c>
+      <c r="W29" s="7">
+        <f>'CO2 Emissions from Veda '!L$5*$O$4</f>
+        <v>223169.18241263801</v>
+      </c>
+      <c r="X29" s="7">
+        <f>'CO2 Emissions from Veda '!M$5*$O$4</f>
+        <v>287956.42922460748</v>
+      </c>
+      <c r="Y29" s="7">
+        <f>'CO2 Emissions from Veda '!N$5*$O$4</f>
+        <v>71210.674989660998</v>
+      </c>
+      <c r="Z29" s="7">
+        <f>'CO2 Emissions from Veda '!O$5*$O$4</f>
+        <v>455562.63175943698</v>
+      </c>
+      <c r="AA29" s="7">
+        <f>'CO2 Emissions from Veda '!P$5*$O$4</f>
+        <v>235865.31667103001</v>
+      </c>
+      <c r="AB29" s="7">
+        <f>'CO2 Emissions from Veda '!Q$5*$O$4</f>
+        <v>117541.35617006051</v>
+      </c>
+      <c r="AC29" s="7">
+        <f>'CO2 Emissions from Veda '!R$5*$O$4</f>
+        <v>126230.1230691275</v>
+      </c>
+      <c r="AD29" s="7">
+        <f>'CO2 Emissions from Veda '!S$5*$O$4</f>
+        <v>996462.15154196997</v>
+      </c>
+    </row>
+    <row r="30" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="1">
         <v>2060</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="7">
+      <c r="L30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="7">
+        <f>'CO2 Emissions from Veda '!C$5*$P$4</f>
+        <v>63873.674162834192</v>
+      </c>
+      <c r="O30" s="7">
+        <f>'CO2 Emissions from Veda '!D$5*$P$4</f>
+        <v>124695.15455241564</v>
+      </c>
+      <c r="P30" s="7">
+        <f>'CO2 Emissions from Veda '!E$5*$P$4</f>
+        <v>66701.192333150902</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>'CO2 Emissions from Veda '!F$5*$P$4</f>
+        <v>13768.904140917835</v>
+      </c>
+      <c r="R30" s="7">
+        <f>'CO2 Emissions from Veda '!G$5*$P$4</f>
+        <v>20412.121103935224</v>
+      </c>
+      <c r="S30" s="7">
+        <f>'CO2 Emissions from Veda '!H$5*$P$4</f>
+        <v>1687295.5128726407</v>
+      </c>
+      <c r="T30" s="7">
+        <f>'CO2 Emissions from Veda '!I$5*$P$4</f>
+        <v>47289.58472625065</v>
+      </c>
+      <c r="U30" s="7">
+        <f>'CO2 Emissions from Veda '!J$5*$P$4</f>
+        <v>289536.86757531058</v>
+      </c>
+      <c r="V30" s="7">
+        <f>'CO2 Emissions from Veda '!K$5*$P$4</f>
+        <v>395817.28343195148</v>
+      </c>
+      <c r="W30" s="7">
+        <f>'CO2 Emissions from Veda '!L$5*$P$4</f>
+        <v>156218.4276888466</v>
+      </c>
+      <c r="X30" s="7">
+        <f>'CO2 Emissions from Veda '!M$5*$P$4</f>
+        <v>201569.50045722522</v>
+      </c>
+      <c r="Y30" s="7">
+        <f>'CO2 Emissions from Veda '!N$5*$P$4</f>
+        <v>49847.472492762696</v>
+      </c>
+      <c r="Z30" s="7">
+        <f>'CO2 Emissions from Veda '!O$5*$P$4</f>
+        <v>318893.84223160584</v>
+      </c>
+      <c r="AA30" s="7">
+        <f>'CO2 Emissions from Veda '!P$5*$P$4</f>
+        <v>165105.72166972101</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>'CO2 Emissions from Veda '!Q$5*$P$4</f>
+        <v>82278.949319042353</v>
+      </c>
+      <c r="AC30" s="7">
+        <f>'CO2 Emissions from Veda '!R$5*$P$4</f>
+        <v>88361.086148389237</v>
+      </c>
+      <c r="AD30" s="7">
+        <f>'CO2 Emissions from Veda '!S$5*$P$4</f>
+        <v>697523.50607937889</v>
+      </c>
+    </row>
+    <row r="31" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2070</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="7">
         <f>'CO2 Emissions from Veda '!C$5*$Q$4</f>
         <v>36499.242378762399</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O31" s="7">
         <f>'CO2 Emissions from Veda '!D$5*$Q$4</f>
         <v>71254.374029951796</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P31" s="7">
         <f>'CO2 Emissions from Veda '!E$5*$Q$4</f>
         <v>38114.967047514801</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q31" s="7">
         <f>'CO2 Emissions from Veda '!F$5*$Q$4</f>
         <v>7867.945223381621</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R31" s="7">
         <f>'CO2 Emissions from Veda '!G$5*$Q$4</f>
         <v>11664.0692022487</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S31" s="7">
         <f>'CO2 Emissions from Veda '!H$5*$Q$4</f>
         <v>964168.86449865205</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T31" s="7">
         <f>'CO2 Emissions from Veda '!I$5*$Q$4</f>
         <v>27022.619843571803</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U31" s="7">
         <f>'CO2 Emissions from Veda '!J$5*$Q$4</f>
         <v>165449.63861446321</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V31" s="7">
         <f>'CO2 Emissions from Veda '!K$5*$Q$4</f>
         <v>226181.30481825804</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W31" s="7">
         <f>'CO2 Emissions from Veda '!L$5*$Q$4</f>
         <v>89267.672965055215</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X31" s="7">
         <f>'CO2 Emissions from Veda '!M$5*$Q$4</f>
         <v>115182.571689843</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y31" s="7">
         <f>'CO2 Emissions from Veda '!N$5*$Q$4</f>
         <v>28484.269995864401</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z31" s="7">
         <f>'CO2 Emissions from Veda '!O$5*$Q$4</f>
         <v>182225.0527037748</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA31" s="7">
         <f>'CO2 Emissions from Veda '!P$5*$Q$4</f>
         <v>94346.126668412006</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB31" s="7">
         <f>'CO2 Emissions from Veda '!Q$5*$Q$4</f>
         <v>47016.542468024207</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC31" s="7">
         <f>'CO2 Emissions from Veda '!R$5*$Q$4</f>
         <v>50492.049227651005</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD31" s="7">
         <f>'CO2 Emissions from Veda '!S$5*$Q$4</f>
         <v>398584.86061678804</v>
       </c>
     </row>
-    <row r="18" spans="6:30" x14ac:dyDescent="0.3">
-      <c r="H18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2070</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="7">
+    <row r="32" spans="6:30" x14ac:dyDescent="0.3">
+      <c r="J32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2080</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="7">
         <f>'CO2 Emissions from Veda '!C$5*$R$4</f>
         <v>18249.6211893812</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O32" s="7">
         <f>'CO2 Emissions from Veda '!D$5*$R$4</f>
         <v>35627.187014975898</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P32" s="7">
         <f>'CO2 Emissions from Veda '!E$5*$R$4</f>
         <v>19057.483523757401</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q32" s="7">
         <f>'CO2 Emissions from Veda '!F$5*$R$4</f>
         <v>3933.9726116908105</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R32" s="7">
         <f>'CO2 Emissions from Veda '!G$5*$R$4</f>
         <v>5832.03460112435</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S32" s="7">
         <f>'CO2 Emissions from Veda '!H$5*$R$4</f>
         <v>482084.43224932603</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T32" s="7">
         <f>'CO2 Emissions from Veda '!I$5*$R$4</f>
         <v>13511.309921785902</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U32" s="7">
         <f>'CO2 Emissions from Veda '!J$5*$R$4</f>
         <v>82724.819307231606</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V32" s="7">
         <f>'CO2 Emissions from Veda '!K$5*$R$4</f>
         <v>113090.65240912902</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W32" s="7">
         <f>'CO2 Emissions from Veda '!L$5*$R$4</f>
         <v>44633.836482527608</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X32" s="7">
         <f>'CO2 Emissions from Veda '!M$5*$R$4</f>
         <v>57591.285844921498</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y32" s="7">
         <f>'CO2 Emissions from Veda '!N$5*$R$4</f>
         <v>14242.1349979322</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z32" s="7">
         <f>'CO2 Emissions from Veda '!O$5*$R$4</f>
         <v>91112.526351887398</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA32" s="7">
         <f>'CO2 Emissions from Veda '!P$5*$R$4</f>
         <v>47173.063334206003</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB32" s="7">
         <f>'CO2 Emissions from Veda '!Q$5*$R$4</f>
         <v>23508.271234012103</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC32" s="7">
         <f>'CO2 Emissions from Veda '!R$5*$R$4</f>
         <v>25246.024613825502</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD32" s="7">
         <f>'CO2 Emissions from Veda '!S$5*$R$4</f>
         <v>199292.43030839402</v>
       </c>
     </row>
-    <row r="19" spans="6:30" x14ac:dyDescent="0.3">
-      <c r="H19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2080</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7">
-        <f>'CO2 Emissions from Veda '!C$5*$S$4</f>
-        <v>9124.8105946905998</v>
-      </c>
-      <c r="O19" s="7">
-        <f>'CO2 Emissions from Veda '!D$5*$S$4</f>
-        <v>17813.593507487949</v>
-      </c>
-      <c r="P19" s="7">
-        <f>'CO2 Emissions from Veda '!E$5*$S$4</f>
-        <v>9528.7417618787003</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>'CO2 Emissions from Veda '!F$5*$S$4</f>
-        <v>1966.9863058454052</v>
-      </c>
-      <c r="R19" s="7">
-        <f>'CO2 Emissions from Veda '!G$5*$S$4</f>
-        <v>2916.017300562175</v>
-      </c>
-      <c r="S19" s="7">
-        <f>'CO2 Emissions from Veda '!H$5*$S$4</f>
-        <v>241042.21612466301</v>
-      </c>
-      <c r="T19" s="7">
-        <f>'CO2 Emissions from Veda '!I$5*$S$4</f>
-        <v>6755.6549608929508</v>
-      </c>
-      <c r="U19" s="7">
-        <f>'CO2 Emissions from Veda '!J$5*$S$4</f>
-        <v>41362.409653615803</v>
-      </c>
-      <c r="V19" s="7">
-        <f>'CO2 Emissions from Veda '!K$5*$S$4</f>
-        <v>56545.32620456451</v>
-      </c>
-      <c r="W19" s="7">
-        <f>'CO2 Emissions from Veda '!L$5*$S$4</f>
-        <v>22316.918241263804</v>
-      </c>
-      <c r="X19" s="7">
-        <f>'CO2 Emissions from Veda '!M$5*$S$4</f>
-        <v>28795.642922460749</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>'CO2 Emissions from Veda '!N$5*$S$4</f>
-        <v>7121.0674989661002</v>
-      </c>
-      <c r="Z19" s="7">
-        <f>'CO2 Emissions from Veda '!O$5*$S$4</f>
-        <v>45556.263175943699</v>
-      </c>
-      <c r="AA19" s="7">
-        <f>'CO2 Emissions from Veda '!P$5*$S$4</f>
-        <v>23586.531667103001</v>
-      </c>
-      <c r="AB19" s="7">
-        <f>'CO2 Emissions from Veda '!Q$5*$S$4</f>
-        <v>11754.135617006052</v>
-      </c>
-      <c r="AC19" s="7">
-        <f>'CO2 Emissions from Veda '!R$5*$S$4</f>
-        <v>12623.012306912751</v>
-      </c>
-      <c r="AD19" s="7">
-        <f>'CO2 Emissions from Veda '!S$5*$S$4</f>
-        <v>99646.215154197009</v>
+    <row r="33" spans="14:30" x14ac:dyDescent="0.3">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
